--- a/data/trans_orig/IQ19B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ19B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC3520A-78D4-4AEC-A61F-2C3569B4E724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{968825B2-B47A-42A9-8B24-1AD31800AB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7334BB40-B430-4840-87B3-1394E45098D0}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A51B734D-A16D-4CFA-8125-10481C74D0EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,67 +65,67 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>97,92%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
     <t>96,91%</t>
   </si>
   <si>
     <t>98,45%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -526,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46F75F2-207E-4439-9989-8CE43A96AAD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06630872-1BF9-4223-B75F-D407673B5E92}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -644,10 +644,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>88665</v>
+        <v>4009</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -659,31 +659,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>67167</v>
+        <v>2930</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6939</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>203</v>
-      </c>
-      <c r="N4" s="7">
-        <v>155832</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -695,10 +695,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>88665</v>
+        <v>4009</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -710,10 +710,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>67167</v>
+        <v>2930</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -725,10 +725,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>155832</v>
+        <v>6939</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
@@ -772,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -846,52 +846,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D8" s="7">
-        <v>49295</v>
+        <v>88665</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7">
+        <v>91</v>
+      </c>
+      <c r="I8" s="7">
+        <v>67167</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7">
-        <v>61</v>
-      </c>
-      <c r="I8" s="7">
-        <v>45019</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="7">
+        <v>203</v>
+      </c>
+      <c r="N8" s="7">
+        <v>155832</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="7">
-        <v>123</v>
-      </c>
-      <c r="N8" s="7">
-        <v>94313</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -903,10 +903,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D9" s="7">
-        <v>49295</v>
+        <v>88665</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -918,10 +918,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>45019</v>
+        <v>67167</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -933,10 +933,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="N9" s="7">
-        <v>94313</v>
+        <v>155832</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -950,31 +950,31 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>4009</v>
+        <v>53883</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7">
-        <v>2930</v>
+        <v>51709</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -986,10 +986,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>6939</v>
+        <v>105592</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1007,10 +1007,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>4009</v>
+        <v>53883</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1022,10 +1022,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7">
-        <v>2930</v>
+        <v>51709</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1037,10 +1037,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>6939</v>
+        <v>105592</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1063,22 +1063,22 @@
         <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>53883</v>
+        <v>49295</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>51709</v>
+        <v>45019</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
@@ -1090,10 +1090,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>105592</v>
+        <v>94313</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -1114,7 +1114,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>53883</v>
+        <v>49295</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -1126,10 +1126,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>51709</v>
+        <v>45019</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1141,10 +1141,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N13" s="7">
-        <v>105592</v>
+        <v>94313</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IQ19B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ19B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{968825B2-B47A-42A9-8B24-1AD31800AB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEDF0905-7981-4FC0-8102-305F2A4E5DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A51B734D-A16D-4CFA-8125-10481C74D0EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E15DDB7-2712-420C-B020-DB829E882062}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
-  <si>
-    <t>Menores según si pueden recordar hace cuanto que fueron al dentista por última vez en 2023 (Tasa respuesta: 29,38%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="34">
+  <si>
+    <t>Menores según si pueden recordar hace cuanto fueron al dentista por última vez en 2023 (Tasa respuesta: 29,38%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>99,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -241,39 +244,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -325,7 +328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -436,13 +439,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -451,6 +447,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -515,19 +518,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06630872-1BF9-4223-B75F-D407673B5E92}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632489E-F71F-4958-BC6B-16DDC283D93D}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1260,6 +1283,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>

--- a/data/trans_orig/IQ19B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ19B_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEDF0905-7981-4FC0-8102-305F2A4E5DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6935207F-27DC-443F-A1B0-4252CBB6C7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E15DDB7-2712-420C-B020-DB829E882062}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B56B842A-D577-40FC-BDDC-381904DDF7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -83,7 +83,7 @@
     <t>82,92%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -95,7 +95,7 @@
     <t>98,08%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>98,3%</t>
@@ -107,7 +107,7 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632489E-F71F-4958-BC6B-16DDC283D93D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8D5580-7F7F-4E3B-A555-D08D158DBBFC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IQ19B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ19B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6935207F-27DC-443F-A1B0-4252CBB6C7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0EE0D0-8842-49F0-A81C-0D776B5C9527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B56B842A-D577-40FC-BDDC-381904DDF7CE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9A4F9A22-346C-436A-861B-B885E2106136}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
   <si>
     <t>Menores según si pueden recordar hace cuanto fueron al dentista por última vez en 2023 (Tasa respuesta: 29,38%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,48 +74,39 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>69,43%</t>
+    <t>96,7%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>98,08%</t>
+    <t>98,26%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>97,92%</t>
+  </si>
+  <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
     <t>98,52%</t>
   </si>
   <si>
@@ -128,10 +119,10 @@
     <t>98,45%</t>
   </si>
   <si>
+    <t>99,31%</t>
+  </si>
+  <si>
     <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -549,8 +540,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8D5580-7F7F-4E3B-A555-D08D158DBBFC}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193F5CE8-D06B-43CD-AC53-FB32AC7B808B}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -667,10 +658,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7">
-        <v>4009</v>
+        <v>35060</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -682,31 +673,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7">
-        <v>2930</v>
+        <v>44228</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="N4" s="7">
-        <v>6939</v>
+        <v>79289</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -718,10 +709,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7">
-        <v>4009</v>
+        <v>35060</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -733,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="I5" s="7">
-        <v>2930</v>
+        <v>44228</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -748,10 +739,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="N5" s="7">
-        <v>6939</v>
+        <v>79289</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -765,52 +756,52 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7">
-        <v>39545</v>
+        <v>62972</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I6" s="7">
-        <v>34542</v>
+        <v>88264</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="N6" s="7">
-        <v>74087</v>
+        <v>151236</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -822,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7">
-        <v>39545</v>
+        <v>62972</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -837,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I7" s="7">
-        <v>34542</v>
+        <v>88264</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -852,10 +843,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="N7" s="7">
-        <v>74087</v>
+        <v>151236</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -869,52 +860,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>88665</v>
+        <v>53895</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>67167</v>
+        <v>58286</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="N8" s="7">
-        <v>155832</v>
+        <v>112181</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -926,10 +917,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>88665</v>
+        <v>53895</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -941,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>67167</v>
+        <v>58286</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -956,10 +947,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>155832</v>
+        <v>112181</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -973,46 +964,46 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>61</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43851</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>62</v>
       </c>
-      <c r="D10" s="7">
-        <v>53883</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>67</v>
-      </c>
       <c r="I10" s="7">
-        <v>51709</v>
+        <v>50190</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N10" s="7">
-        <v>105592</v>
+        <v>94041</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1030,25 +1021,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43851</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>62</v>
       </c>
-      <c r="D11" s="7">
-        <v>53883</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>67</v>
-      </c>
       <c r="I11" s="7">
-        <v>51709</v>
+        <v>50190</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1060,10 +1051,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N11" s="7">
-        <v>105592</v>
+        <v>94041</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1077,31 +1068,31 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>276</v>
       </c>
       <c r="D12" s="7">
-        <v>49295</v>
+        <v>195778</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="I12" s="7">
-        <v>45019</v>
+        <v>240968</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
@@ -1113,10 +1104,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>123</v>
+        <v>564</v>
       </c>
       <c r="N12" s="7">
-        <v>94313</v>
+        <v>436746</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -1134,10 +1125,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>62</v>
+        <v>276</v>
       </c>
       <c r="D13" s="7">
-        <v>49295</v>
+        <v>195778</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -1149,10 +1140,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="I13" s="7">
-        <v>45019</v>
+        <v>240968</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1164,10 +1155,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>123</v>
+        <v>564</v>
       </c>
       <c r="N13" s="7">
-        <v>94313</v>
+        <v>436746</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -1180,120 +1171,15 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>288</v>
-      </c>
-      <c r="D14" s="7">
-        <v>235396</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7">
-        <v>276</v>
-      </c>
-      <c r="I14" s="7">
-        <v>201366</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="7">
-        <v>564</v>
-      </c>
-      <c r="N14" s="7">
-        <v>436762</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>288</v>
-      </c>
-      <c r="D15" s="7">
-        <v>235396</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>276</v>
-      </c>
-      <c r="I15" s="7">
-        <v>201366</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
-        <v>564</v>
-      </c>
-      <c r="N15" s="7">
-        <v>436762</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
